--- a/Team-Data/2014-15/3-24-2014-15.xlsx
+++ b/Team-Data/2014-15/3-24-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -768,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -816,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -938,7 +1005,7 @@
         <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -980,16 +1047,16 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -1126,13 +1193,13 @@
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>20</v>
@@ -1150,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>18</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1350,10 +1417,10 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -1475,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1520,22 +1587,22 @@
         <v>5</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>16</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -1657,16 +1724,16 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="n">
         <v>7</v>
       </c>
-      <c r="AG7" t="n">
-        <v>6</v>
-      </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1684,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1696,16 +1763,16 @@
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT7" t="n">
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1726,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="BB7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -1761,13 +1828,13 @@
         <v>71</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.634</v>
+        <v>0.62</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,43 +1843,43 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
       </c>
       <c r="L8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M8" t="n">
         <v>26.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O8" t="n">
         <v>16.6</v>
       </c>
       <c r="P8" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>41.9</v>
       </c>
       <c r="U8" t="n">
         <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
@@ -1821,7 +1888,7 @@
         <v>4.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z8" t="n">
         <v>19.8</v>
@@ -1833,22 +1900,22 @@
         <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1857,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1866,22 +1933,22 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
@@ -1890,13 +1957,13 @@
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,13 +2097,13 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
@@ -2051,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
@@ -2063,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
@@ -2075,13 +2142,13 @@
         <v>15</v>
       </c>
       <c r="AW9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
         <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.38</v>
+        <v>0.371</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,19 +2207,19 @@
         <v>36.8</v>
       </c>
       <c r="J10" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K10" t="n">
         <v>0.426</v>
       </c>
       <c r="L10" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M10" t="n">
         <v>25.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O10" t="n">
         <v>16.1</v>
@@ -2164,16 +2231,16 @@
         <v>0.707</v>
       </c>
       <c r="R10" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="T10" t="n">
         <v>45.4</v>
       </c>
       <c r="U10" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V10" t="n">
         <v>13.5</v>
@@ -2188,28 +2255,28 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
         <v>19.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
         <v>13</v>
@@ -2227,10 +2294,10 @@
         <v>10</v>
       </c>
       <c r="AM10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2257,7 +2324,7 @@
         <v>7</v>
       </c>
       <c r="AW10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX10" t="n">
         <v>16</v>
@@ -2269,10 +2336,10 @@
         <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="J11" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.479</v>
+        <v>0.477</v>
       </c>
       <c r="L11" t="n">
         <v>10.6</v>
@@ -2334,40 +2401,40 @@
         <v>27</v>
       </c>
       <c r="N11" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="O11" t="n">
         <v>16.2</v>
       </c>
       <c r="P11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R11" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
         <v>44.6</v>
       </c>
       <c r="U11" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="V11" t="n">
         <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z11" t="n">
         <v>19.7</v>
@@ -2376,13 +2443,13 @@
         <v>18.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="AC11" t="n">
         <v>10.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2418,13 +2485,13 @@
         <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ11" t="n">
         <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2439,7 +2506,7 @@
         <v>19</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="n">
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.671</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>11.5</v>
       </c>
       <c r="M12" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R12" t="n">
         <v>11.7</v>
@@ -2534,37 +2601,37 @@
         <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>22.1</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2582,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>26</v>
@@ -2612,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2621,25 +2688,25 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>20</v>
@@ -2758,7 +2825,7 @@
         <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>23</v>
@@ -2770,7 +2837,7 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2785,7 +2852,7 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
@@ -2806,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -2928,19 +2995,19 @@
         <v>5.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2964,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -2976,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>14</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -3047,31 +3114,31 @@
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.438</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
@@ -3080,10 +3147,10 @@
         <v>32.6</v>
       </c>
       <c r="T15" t="n">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3092,31 +3159,31 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3125,22 +3192,22 @@
         <v>5</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -3149,13 +3216,13 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>9</v>
@@ -3167,22 +3234,22 @@
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA15" t="n">
         <v>22</v>
       </c>
-      <c r="BA15" t="n">
-        <v>23</v>
-      </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3322,10 +3389,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
@@ -3355,7 +3422,7 @@
         <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3364,7 +3431,7 @@
         <v>14</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3463,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" t="n">
-        <v>0.457</v>
+        <v>0.464</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J17" t="n">
         <v>76.5</v>
@@ -3426,34 +3493,34 @@
         <v>20.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R17" t="n">
         <v>8.9</v>
       </c>
       <c r="S17" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T17" t="n">
         <v>38.8</v>
       </c>
       <c r="U17" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
         <v>4.4</v>
@@ -3468,13 +3535,13 @@
         <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC17" t="n">
         <v>-2.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3507,7 +3574,7 @@
         <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
@@ -3528,7 +3595,7 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="n">
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.493</v>
+        <v>0.486</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
@@ -3599,19 +3666,19 @@
         <v>81.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L18" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M18" t="n">
         <v>18.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P18" t="n">
         <v>21</v>
@@ -3620,13 +3687,13 @@
         <v>0.768</v>
       </c>
       <c r="R18" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
         <v>31.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U18" t="n">
         <v>23.2</v>
@@ -3638,7 +3705,7 @@
         <v>9.4</v>
       </c>
       <c r="X18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y18" t="n">
         <v>4.7</v>
@@ -3650,13 +3717,13 @@
         <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC18" t="n">
         <v>0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3671,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
@@ -3695,16 +3762,16 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3716,13 +3783,13 @@
         <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY18" t="n">
         <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>20</v>
@@ -3731,7 +3798,7 @@
         <v>22</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -3838,28 +3905,28 @@
         <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3877,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>4</v>
@@ -3895,7 +3962,7 @@
         <v>24</v>
       </c>
       <c r="AW19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
         <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>0.522</v>
+        <v>0.529</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,10 +4027,10 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>7.1</v>
@@ -3972,28 +4039,28 @@
         <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="O20" t="n">
         <v>16.6</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.763</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V20" t="n">
         <v>13.7</v>
@@ -4002,7 +4069,7 @@
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
@@ -4011,16 +4078,16 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4041,25 +4108,25 @@
         <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
@@ -4068,7 +4135,7 @@
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4262,7 +4329,7 @@
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" t="n">
         <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.577</v>
+        <v>0.571</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="J22" t="n">
         <v>86.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L22" t="n">
         <v>7.5</v>
@@ -4336,16 +4403,16 @@
         <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="O22" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P22" t="n">
         <v>24.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R22" t="n">
         <v>12.7</v>
@@ -4357,7 +4424,7 @@
         <v>47.7</v>
       </c>
       <c r="U22" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V22" t="n">
         <v>15</v>
@@ -4369,7 +4436,7 @@
         <v>5.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z22" t="n">
         <v>22.3</v>
@@ -4378,13 +4445,13 @@
         <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.6</v>
+        <v>103.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4399,13 +4466,13 @@
         <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>4</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4423,7 +4490,7 @@
         <v>8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4435,13 +4502,13 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>23</v>
       </c>
       <c r="AW22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX22" t="n">
         <v>6</v>
@@ -4453,13 +4520,13 @@
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="n">
-        <v>0.31</v>
+        <v>0.306</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
         <v>82.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.353</v>
@@ -4530,43 +4597,43 @@
         <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U23" t="n">
         <v>20.6</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>7.9</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.8</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4581,10 +4648,10 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -4611,7 +4678,7 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
@@ -4620,16 +4687,16 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>13</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" t="n">
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" t="n">
-        <v>0.239</v>
+        <v>0.243</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="J24" t="n">
         <v>82</v>
       </c>
       <c r="K24" t="n">
-        <v>0.409</v>
+        <v>0.408</v>
       </c>
       <c r="L24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M24" t="n">
         <v>25.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.321</v>
+        <v>0.318</v>
       </c>
       <c r="O24" t="n">
         <v>16</v>
@@ -4712,10 +4779,10 @@
         <v>0.674</v>
       </c>
       <c r="R24" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T24" t="n">
         <v>43</v>
@@ -4724,7 +4791,7 @@
         <v>20.7</v>
       </c>
       <c r="V24" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="W24" t="n">
         <v>9.699999999999999</v>
@@ -4736,19 +4803,19 @@
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA24" t="n">
         <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="AC24" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM24" t="n">
         <v>9</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY24" t="n">
         <v>26</v>
       </c>
       <c r="AZ24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4951,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
@@ -4969,16 +5036,16 @@
         <v>20</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>25</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="n">
         <v>44</v>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.638</v>
+        <v>0.647</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,7 +5119,7 @@
         <v>38.3</v>
       </c>
       <c r="J26" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K26" t="n">
         <v>0.447</v>
@@ -5061,13 +5128,13 @@
         <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O26" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P26" t="n">
         <v>19.9</v>
@@ -5079,10 +5146,10 @@
         <v>10.7</v>
       </c>
       <c r="S26" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="T26" t="n">
-        <v>45.8</v>
+        <v>45.9</v>
       </c>
       <c r="U26" t="n">
         <v>21.9</v>
@@ -5094,34 +5161,34 @@
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA26" t="n">
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH26" t="n">
         <v>8</v>
@@ -5133,16 +5200,16 @@
         <v>8</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>26</v>
@@ -5154,16 +5221,16 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" t="n">
         <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>0.357</v>
+        <v>0.348</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5234,10 +5301,10 @@
         <v>36.4</v>
       </c>
       <c r="J27" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L27" t="n">
         <v>5.4</v>
@@ -5249,34 +5316,34 @@
         <v>0.335</v>
       </c>
       <c r="O27" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="P27" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R27" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
         <v>33.5</v>
       </c>
       <c r="T27" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U27" t="n">
         <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y27" t="n">
         <v>6.1</v>
@@ -5288,13 +5355,13 @@
         <v>24.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC27" t="n">
         <v>-3.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,10 +5403,10 @@
         <v>5</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT27" t="n">
         <v>8</v>
@@ -5357,7 +5424,7 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -5401,13 +5468,13 @@
         <v>69</v>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" t="n">
-        <v>0.623</v>
+        <v>0.638</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,10 +5483,10 @@
         <v>38.6</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
@@ -5428,13 +5495,13 @@
         <v>22.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.36</v>
+        <v>0.364</v>
       </c>
       <c r="O28" t="n">
         <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q28" t="n">
         <v>0.776</v>
@@ -5443,19 +5510,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X28" t="n">
         <v>5.5</v>
@@ -5470,49 +5537,49 @@
         <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD28" t="n">
         <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>6</v>
@@ -5524,13 +5591,13 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>12</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="n">
         <v>42</v>
       </c>
       <c r="F29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>0.592</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J29" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K29" t="n">
         <v>0.453</v>
@@ -5613,13 +5680,13 @@
         <v>0.351</v>
       </c>
       <c r="O29" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.79</v>
+        <v>0.787</v>
       </c>
       <c r="R29" t="n">
         <v>10.8</v>
@@ -5637,7 +5704,7 @@
         <v>12.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X29" t="n">
         <v>4.4</v>
@@ -5655,10 +5722,10 @@
         <v>104.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5667,7 +5734,7 @@
         <v>10</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
         <v>13</v>
@@ -5676,7 +5743,7 @@
         <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>14</v>
@@ -5685,7 +5752,7 @@
         <v>9</v>
       </c>
       <c r="AM29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN29" t="n">
         <v>13</v>
@@ -5694,7 +5761,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5709,10 +5776,10 @@
         <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5888,7 +5955,7 @@
         <v>19</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5897,10 +5964,10 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>13</v>
@@ -6034,7 +6101,7 @@
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
@@ -6061,13 +6128,13 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>22</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT31" t="n">
         <v>12</v>
@@ -6082,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="AX31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-24-2014-15</t>
+          <t>2015-03-24</t>
         </is>
       </c>
     </row>
